--- a/无穷数论-2.0.xlsx
+++ b/无穷数论-2.0.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guhhhhaa/Documents/GitHub/scifi-movel-generator-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C52D29-BA5B-ED4F-B653-4C1FDF82083F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D9D127-A77F-3946-8A35-BCEB353C484B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14060" activeTab="1" xr2:uid="{9FF6FCCF-028A-4F4B-89C1-B19626EE5311}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{9FF6FCCF-028A-4F4B-89C1-B19626EE5311}"/>
   </bookViews>
   <sheets>
     <sheet name="无穷数论" sheetId="1" r:id="rId1"/>
     <sheet name="信息格尺" sheetId="3" r:id="rId2"/>
-    <sheet name="科学算命" sheetId="5" r:id="rId3"/>
-    <sheet name="自动写作" sheetId="6" r:id="rId4"/>
-    <sheet name="终极架构" sheetId="4" r:id="rId5"/>
-    <sheet name="猴子打字机" sheetId="8" r:id="rId6"/>
+    <sheet name="3x3字母表" sheetId="9" r:id="rId3"/>
+    <sheet name="二进制10数" sheetId="11" r:id="rId4"/>
+    <sheet name="统治局" sheetId="10" r:id="rId5"/>
+    <sheet name="科学算命" sheetId="5" r:id="rId6"/>
+    <sheet name="自动写作" sheetId="6" r:id="rId7"/>
+    <sheet name="终极架构" sheetId="4" r:id="rId8"/>
+    <sheet name="猴子打字机" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">无穷数论!$A$39:$Y$56</definedName>
@@ -67,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="224">
   <si>
     <t>∞</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -859,6 +862,110 @@
   </si>
   <si>
     <t>#F0F0F0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>π</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ω</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ψ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,7 +973,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1019,8 +1126,32 @@
       <name val="苹方-简 常规体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F00FF"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F00FF"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color rgb="FF0F00FF"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="50">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1315,8 +1446,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0F00FF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1610,13 +1765,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0F00FF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0F00FF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0F00FF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0F00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0F00FF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0F00FF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0F00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0F00FF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0F00FF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0F00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0F00FF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0F00FF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0F00FF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0F00FF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0F00FF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0F00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0F00FF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0F00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0F00FF"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0F00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0F00FF"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0F00FF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0F00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0F00FF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0F00FF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0F00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0F00FF"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0F00FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1893,13 +2182,13 @@
     <xf numFmtId="49" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="49" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1975,6 +2264,93 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="50" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="50" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="50" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="50" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="50" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="50" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="50" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="50" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="51" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="51" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="51" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="51" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="52" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="53" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7535,7 +7911,7 @@
   </sheetPr>
   <dimension ref="B1:AT20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+    <sheetView zoomScale="84" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:AT20"/>
     </sheetView>
   </sheetViews>
@@ -8749,6 +9125,1881 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAAEEE8-1C5B-7546-BCA5-34D9D38880F3}">
+  <dimension ref="B2:V31"/>
+  <sheetViews>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.33203125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="25" width="2.33203125" style="121"/>
+    <col min="26" max="27" width="2.33203125" style="121" customWidth="1"/>
+    <col min="28" max="28" width="2.33203125" style="121"/>
+    <col min="29" max="29" width="3" style="121" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="2.33203125" style="121" customWidth="1"/>
+    <col min="33" max="16384" width="2.33203125" style="121"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" ht="15" customHeight="1">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+    </row>
+    <row r="3" spans="2:22" ht="15" customHeight="1">
+      <c r="B3" s="142"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="147"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="142"/>
+    </row>
+    <row r="4" spans="2:22" ht="15" customHeight="1">
+      <c r="B4" s="142"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="147"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="125"/>
+      <c r="P4" s="147"/>
+      <c r="Q4" s="125"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="147"/>
+      <c r="V4" s="142"/>
+    </row>
+    <row r="5" spans="2:22" ht="15" customHeight="1">
+      <c r="B5" s="142"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="124"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="142"/>
+    </row>
+    <row r="6" spans="2:22" ht="15" customHeight="1">
+      <c r="B6" s="142"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="146"/>
+      <c r="P6" s="146" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="146" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+    </row>
+    <row r="7" spans="2:22" ht="15" customHeight="1">
+      <c r="B7" s="142"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="124"/>
+      <c r="U7" s="124"/>
+      <c r="V7" s="142"/>
+    </row>
+    <row r="8" spans="2:22" ht="15" customHeight="1">
+      <c r="B8" s="142"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="142"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="124"/>
+      <c r="Q8" s="147"/>
+      <c r="R8" s="142"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="124"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="142"/>
+    </row>
+    <row r="9" spans="2:22" ht="15" customHeight="1">
+      <c r="B9" s="142"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="142"/>
+      <c r="O9" s="124"/>
+      <c r="P9" s="124"/>
+      <c r="Q9" s="124"/>
+      <c r="R9" s="142"/>
+      <c r="S9" s="124"/>
+      <c r="T9" s="124"/>
+      <c r="U9" s="147"/>
+      <c r="V9" s="142"/>
+    </row>
+    <row r="10" spans="2:22" ht="15" customHeight="1">
+      <c r="B10" s="142"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146"/>
+      <c r="H10" s="146" t="s">
+        <v>198</v>
+      </c>
+      <c r="I10" s="146"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="146"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="146"/>
+      <c r="P10" s="146" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="146"/>
+      <c r="S10" s="146"/>
+      <c r="T10" s="146" t="s">
+        <v>201</v>
+      </c>
+      <c r="U10" s="146"/>
+      <c r="V10" s="142"/>
+    </row>
+    <row r="11" spans="2:22" ht="15" customHeight="1">
+      <c r="B11" s="142"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="142"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="125"/>
+      <c r="Q11" s="125"/>
+      <c r="R11" s="142"/>
+      <c r="S11" s="125"/>
+      <c r="T11" s="125"/>
+      <c r="U11" s="125"/>
+      <c r="V11" s="142"/>
+    </row>
+    <row r="12" spans="2:22" ht="15" customHeight="1">
+      <c r="B12" s="142"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="142"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="147"/>
+      <c r="Q12" s="125"/>
+      <c r="R12" s="142"/>
+      <c r="S12" s="125"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="125"/>
+      <c r="V12" s="142"/>
+    </row>
+    <row r="13" spans="2:22" ht="15" customHeight="1">
+      <c r="B13" s="142"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="142"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="147"/>
+      <c r="Q13" s="125"/>
+      <c r="R13" s="142"/>
+      <c r="S13" s="125"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="142"/>
+    </row>
+    <row r="14" spans="2:22" ht="15" customHeight="1">
+      <c r="B14" s="142"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146" t="s">
+        <v>204</v>
+      </c>
+      <c r="M14" s="146"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
+      <c r="P14" s="146" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="146"/>
+      <c r="S14" s="146"/>
+      <c r="T14" s="146" t="s">
+        <v>206</v>
+      </c>
+      <c r="U14" s="146"/>
+      <c r="V14" s="142"/>
+    </row>
+    <row r="15" spans="2:22" ht="15" customHeight="1">
+      <c r="B15" s="142"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="125"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="142"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="142"/>
+    </row>
+    <row r="16" spans="2:22" ht="15" customHeight="1">
+      <c r="B16" s="142"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="147"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="142"/>
+      <c r="S16" s="147"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="147"/>
+      <c r="V16" s="142"/>
+    </row>
+    <row r="17" spans="2:22" ht="15" customHeight="1">
+      <c r="B17" s="142"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="142"/>
+      <c r="O17" s="147"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="142"/>
+      <c r="S17" s="147"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="147"/>
+      <c r="V17" s="142"/>
+    </row>
+    <row r="18" spans="2:22" ht="15" customHeight="1">
+      <c r="B18" s="142"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="146" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146" t="s">
+        <v>208</v>
+      </c>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146" t="s">
+        <v>209</v>
+      </c>
+      <c r="M18" s="146"/>
+      <c r="N18" s="146"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="146" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q18" s="146"/>
+      <c r="R18" s="146"/>
+      <c r="S18" s="146"/>
+      <c r="T18" s="146" t="s">
+        <v>211</v>
+      </c>
+      <c r="U18" s="146"/>
+      <c r="V18" s="146"/>
+    </row>
+    <row r="19" spans="2:22" ht="15" customHeight="1">
+      <c r="B19" s="142"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="147"/>
+      <c r="Q19" s="125"/>
+      <c r="R19" s="142"/>
+      <c r="S19" s="125"/>
+      <c r="T19" s="147"/>
+      <c r="U19" s="125"/>
+      <c r="V19" s="142"/>
+    </row>
+    <row r="20" spans="2:22" ht="15" customHeight="1">
+      <c r="B20" s="142"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="142"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="125"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="142"/>
+      <c r="S20" s="147"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="147"/>
+      <c r="V20" s="142"/>
+    </row>
+    <row r="21" spans="2:22" ht="15" customHeight="1">
+      <c r="B21" s="142"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="142"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="147"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="142"/>
+      <c r="S21" s="147"/>
+      <c r="T21" s="125"/>
+      <c r="U21" s="147"/>
+      <c r="V21" s="142"/>
+    </row>
+    <row r="22" spans="2:22" ht="15" customHeight="1">
+      <c r="B22" s="142"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="146" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146" t="s">
+        <v>213</v>
+      </c>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" s="146"/>
+      <c r="N22" s="146"/>
+      <c r="O22" s="146"/>
+      <c r="P22" s="146" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="146"/>
+      <c r="S22" s="146"/>
+      <c r="T22" s="146" t="s">
+        <v>215</v>
+      </c>
+      <c r="U22" s="146"/>
+      <c r="V22" s="142"/>
+    </row>
+    <row r="23" spans="2:22" ht="15" customHeight="1">
+      <c r="B23" s="142"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="142"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="147"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="142"/>
+      <c r="S23" s="147"/>
+      <c r="T23" s="125"/>
+      <c r="U23" s="147"/>
+      <c r="V23" s="142"/>
+    </row>
+    <row r="24" spans="2:22" ht="15" customHeight="1">
+      <c r="B24" s="142"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="142"/>
+      <c r="O24" s="147"/>
+      <c r="P24" s="147"/>
+      <c r="Q24" s="147"/>
+      <c r="R24" s="142"/>
+      <c r="S24" s="125"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="125"/>
+      <c r="V24" s="142"/>
+    </row>
+    <row r="25" spans="2:22" ht="15" customHeight="1">
+      <c r="B25" s="142"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="142"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="147"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="142"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="125"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="142"/>
+    </row>
+    <row r="26" spans="2:22" ht="15" customHeight="1">
+      <c r="B26" s="142"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146" t="s">
+        <v>217</v>
+      </c>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146" t="s">
+        <v>218</v>
+      </c>
+      <c r="M26" s="146"/>
+      <c r="N26" s="146"/>
+      <c r="O26" s="146"/>
+      <c r="P26" s="146" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="146"/>
+      <c r="R26" s="146"/>
+      <c r="S26" s="146"/>
+      <c r="T26" s="146" t="s">
+        <v>219</v>
+      </c>
+      <c r="U26" s="146"/>
+      <c r="V26" s="142"/>
+    </row>
+    <row r="27" spans="2:22" ht="15" customHeight="1">
+      <c r="B27" s="142"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="142"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="142"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="147"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="142"/>
+      <c r="S27" s="125"/>
+      <c r="T27" s="125"/>
+      <c r="U27" s="125"/>
+      <c r="V27" s="142"/>
+    </row>
+    <row r="28" spans="2:22" ht="15" customHeight="1">
+      <c r="B28" s="142"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="142"/>
+      <c r="O28" s="125"/>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="125"/>
+      <c r="R28" s="142"/>
+      <c r="S28" s="125"/>
+      <c r="T28" s="147"/>
+      <c r="U28" s="125"/>
+      <c r="V28" s="142"/>
+    </row>
+    <row r="29" spans="2:22" ht="15" customHeight="1">
+      <c r="B29" s="142"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="125"/>
+      <c r="N29" s="142"/>
+      <c r="O29" s="147"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="147"/>
+      <c r="R29" s="142"/>
+      <c r="S29" s="147"/>
+      <c r="T29" s="125"/>
+      <c r="U29" s="147"/>
+      <c r="V29" s="142"/>
+    </row>
+    <row r="30" spans="2:22" ht="15" customHeight="1">
+      <c r="B30" s="142"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146" t="s">
+        <v>221</v>
+      </c>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146" t="s">
+        <v>222</v>
+      </c>
+      <c r="M30" s="146"/>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="146" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q30" s="146"/>
+      <c r="R30" s="146"/>
+      <c r="S30" s="146"/>
+      <c r="T30" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="U30" s="146"/>
+      <c r="V30" s="142"/>
+    </row>
+    <row r="31" spans="2:22" ht="15" customHeight="1">
+      <c r="B31" s="142"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="142"/>
+      <c r="M31" s="142"/>
+      <c r="N31" s="142"/>
+      <c r="O31" s="142"/>
+      <c r="P31" s="142"/>
+      <c r="Q31" s="142"/>
+      <c r="R31" s="142"/>
+      <c r="S31" s="142"/>
+      <c r="T31" s="142"/>
+      <c r="U31" s="142"/>
+      <c r="V31" s="142"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEAAC8C-84F1-EB46-92C4-88E3FEED1B0B}">
+  <dimension ref="B2:Z26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="AM12" sqref="AM12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.33203125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="2.33203125" style="121"/>
+    <col min="3" max="4" width="3.33203125" style="121" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" style="121"/>
+    <col min="6" max="6" width="3.1640625" style="121" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="3.33203125" style="121" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" style="121"/>
+    <col min="11" max="11" width="3" style="121" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="3.33203125" style="121" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3" style="121" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.1640625" style="121" bestFit="1" customWidth="1"/>
+    <col min="19" max="25" width="3.33203125" style="121" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3" style="121" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="2.33203125" style="121"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
+    </row>
+    <row r="3" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="148"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="148"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="148"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="142"/>
+    </row>
+    <row r="4" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="142"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="148"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="148"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="142"/>
+    </row>
+    <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B5" s="142"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="148"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="142"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="128"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="127"/>
+      <c r="V5" s="143"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="144"/>
+      <c r="Y5" s="145"/>
+      <c r="Z5" s="142"/>
+    </row>
+    <row r="6" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="146">
+        <v>1</v>
+      </c>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146">
+        <v>8</v>
+      </c>
+      <c r="I6" s="146">
+        <v>5</v>
+      </c>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146">
+        <v>5</v>
+      </c>
+      <c r="N6" s="146">
+        <v>4</v>
+      </c>
+      <c r="O6" s="146">
+        <v>6</v>
+      </c>
+      <c r="P6" s="146">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="146">
+        <v>3</v>
+      </c>
+      <c r="U6" s="146">
+        <v>8</v>
+      </c>
+      <c r="V6" s="146">
+        <v>9</v>
+      </c>
+      <c r="W6" s="146">
+        <v>5</v>
+      </c>
+      <c r="X6" s="146">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="146">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="142"/>
+    </row>
+    <row r="7" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B7" s="142"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="132"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="148"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="148"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="148"/>
+      <c r="Z7" s="142"/>
+    </row>
+    <row r="8" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="148"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="148"/>
+      <c r="Q8" s="142"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="148"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="148"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="148"/>
+      <c r="Z8" s="142"/>
+    </row>
+    <row r="9" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B9" s="142"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="144"/>
+      <c r="P9" s="145"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="134"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="148"/>
+      <c r="V9" s="143"/>
+      <c r="W9" s="144"/>
+      <c r="X9" s="144"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="142"/>
+    </row>
+    <row r="10" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="146">
+        <v>2</v>
+      </c>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="146">
+        <v>1</v>
+      </c>
+      <c r="H10" s="146">
+        <v>7</v>
+      </c>
+      <c r="I10" s="146">
+        <v>0</v>
+      </c>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146">
+        <v>1</v>
+      </c>
+      <c r="M10" s="146">
+        <v>0</v>
+      </c>
+      <c r="N10" s="146">
+        <v>9</v>
+      </c>
+      <c r="O10" s="146">
+        <v>2</v>
+      </c>
+      <c r="P10" s="146">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="146"/>
+      <c r="R10" s="146"/>
+      <c r="S10" s="146"/>
+      <c r="T10" s="146">
+        <v>7</v>
+      </c>
+      <c r="U10" s="146">
+        <v>7</v>
+      </c>
+      <c r="V10" s="146">
+        <v>9</v>
+      </c>
+      <c r="W10" s="146">
+        <v>0</v>
+      </c>
+      <c r="X10" s="146">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="146">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="142"/>
+    </row>
+    <row r="11" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="148"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="148"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="142"/>
+      <c r="R11" s="148"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="148"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="148"/>
+      <c r="W11" s="122"/>
+      <c r="X11" s="148"/>
+      <c r="Y11" s="122"/>
+      <c r="Z11" s="142"/>
+    </row>
+    <row r="12" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B12" s="142"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="148"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="148"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="148"/>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="142"/>
+      <c r="R12" s="148"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="148"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="148"/>
+      <c r="W12" s="122"/>
+      <c r="X12" s="148"/>
+      <c r="Y12" s="122"/>
+      <c r="Z12" s="142"/>
+    </row>
+    <row r="13" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B13" s="142"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="148"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="143"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="142"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="148"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="148"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="143"/>
+      <c r="Y13" s="145"/>
+      <c r="Z13" s="142"/>
+    </row>
+    <row r="14" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="146">
+        <v>5</v>
+      </c>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146">
+        <v>3</v>
+      </c>
+      <c r="H14" s="146">
+        <v>4</v>
+      </c>
+      <c r="I14" s="146">
+        <v>1</v>
+      </c>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146">
+        <v>2</v>
+      </c>
+      <c r="M14" s="146">
+        <v>1</v>
+      </c>
+      <c r="N14" s="146">
+        <v>8</v>
+      </c>
+      <c r="O14" s="146">
+        <v>4</v>
+      </c>
+      <c r="P14" s="146">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="146"/>
+      <c r="S14" s="146">
+        <v>1</v>
+      </c>
+      <c r="T14" s="146">
+        <v>5</v>
+      </c>
+      <c r="U14" s="146">
+        <v>5</v>
+      </c>
+      <c r="V14" s="146">
+        <v>8</v>
+      </c>
+      <c r="W14" s="146">
+        <v>1</v>
+      </c>
+      <c r="X14" s="146">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="146">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="142"/>
+    </row>
+    <row r="15" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="148"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="148"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="148"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="148"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="148"/>
+      <c r="V15" s="122"/>
+      <c r="W15" s="148"/>
+      <c r="X15" s="122"/>
+      <c r="Y15" s="148"/>
+      <c r="Z15" s="142"/>
+    </row>
+    <row r="16" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B16" s="142"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="148"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="148"/>
+      <c r="O16" s="122"/>
+      <c r="P16" s="148"/>
+      <c r="Q16" s="142"/>
+      <c r="R16" s="132"/>
+      <c r="S16" s="148"/>
+      <c r="T16" s="122"/>
+      <c r="U16" s="148"/>
+      <c r="V16" s="122"/>
+      <c r="W16" s="148"/>
+      <c r="X16" s="122"/>
+      <c r="Y16" s="148"/>
+      <c r="Z16" s="142"/>
+    </row>
+    <row r="17" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B17" s="142"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="148"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="148"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="142"/>
+      <c r="R17" s="134"/>
+      <c r="S17" s="148"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="148"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="148"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="145"/>
+      <c r="Z17" s="142"/>
+    </row>
+    <row r="18" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B18" s="142"/>
+      <c r="C18" s="146">
+        <v>1</v>
+      </c>
+      <c r="D18" s="146">
+        <v>0</v>
+      </c>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146">
+        <v>6</v>
+      </c>
+      <c r="H18" s="146">
+        <v>8</v>
+      </c>
+      <c r="I18" s="146">
+        <v>2</v>
+      </c>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146">
+        <v>4</v>
+      </c>
+      <c r="M18" s="146">
+        <v>3</v>
+      </c>
+      <c r="N18" s="146">
+        <v>6</v>
+      </c>
+      <c r="O18" s="146">
+        <v>9</v>
+      </c>
+      <c r="P18" s="146">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="146"/>
+      <c r="R18" s="146"/>
+      <c r="S18" s="146">
+        <v>3</v>
+      </c>
+      <c r="T18" s="146">
+        <v>1</v>
+      </c>
+      <c r="U18" s="146">
+        <v>1</v>
+      </c>
+      <c r="V18" s="146">
+        <v>6</v>
+      </c>
+      <c r="W18" s="146">
+        <v>2</v>
+      </c>
+      <c r="X18" s="146">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="146">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="142"/>
+    </row>
+    <row r="19" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B19" s="142"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="148"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="148"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="148"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="142"/>
+      <c r="R19" s="148"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="148"/>
+      <c r="U19" s="122"/>
+      <c r="V19" s="148"/>
+      <c r="W19" s="133"/>
+      <c r="X19" s="148"/>
+      <c r="Y19" s="122"/>
+      <c r="Z19" s="142"/>
+    </row>
+    <row r="20" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B20" s="142"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="148"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="148"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="148"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="148"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="148"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="148"/>
+      <c r="W20" s="133"/>
+      <c r="X20" s="148"/>
+      <c r="Y20" s="122"/>
+      <c r="Z20" s="142"/>
+    </row>
+    <row r="21" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B21" s="142"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="148"/>
+      <c r="L21" s="128"/>
+      <c r="M21" s="148"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="148"/>
+      <c r="P21" s="128"/>
+      <c r="Q21" s="142"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="148"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="148"/>
+      <c r="W21" s="127"/>
+      <c r="X21" s="148"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="142"/>
+    </row>
+    <row r="22" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B22" s="142"/>
+      <c r="C22" s="146">
+        <v>2</v>
+      </c>
+      <c r="D22" s="146">
+        <v>1</v>
+      </c>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146">
+        <v>1</v>
+      </c>
+      <c r="G22" s="146">
+        <v>3</v>
+      </c>
+      <c r="H22" s="146">
+        <v>6</v>
+      </c>
+      <c r="I22" s="146">
+        <v>5</v>
+      </c>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146">
+        <v>8</v>
+      </c>
+      <c r="M22" s="146">
+        <v>7</v>
+      </c>
+      <c r="N22" s="146">
+        <v>3</v>
+      </c>
+      <c r="O22" s="146">
+        <v>8</v>
+      </c>
+      <c r="P22" s="146">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="146"/>
+      <c r="S22" s="146">
+        <v>6</v>
+      </c>
+      <c r="T22" s="146">
+        <v>2</v>
+      </c>
+      <c r="U22" s="146">
+        <v>3</v>
+      </c>
+      <c r="V22" s="146">
+        <v>2</v>
+      </c>
+      <c r="W22" s="146">
+        <v>4</v>
+      </c>
+      <c r="X22" s="146">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="146">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="142"/>
+    </row>
+    <row r="23" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B23" s="142"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="148"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="148"/>
+      <c r="Q23" s="142"/>
+      <c r="R23" s="135"/>
+      <c r="S23" s="148"/>
+      <c r="T23" s="133"/>
+      <c r="U23" s="148"/>
+      <c r="V23" s="133"/>
+      <c r="W23" s="148"/>
+      <c r="X23" s="133"/>
+      <c r="Y23" s="148"/>
+      <c r="Z23" s="142"/>
+    </row>
+    <row r="24" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B24" s="142"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="148"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="148"/>
+      <c r="Q24" s="142"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="148"/>
+      <c r="T24" s="133"/>
+      <c r="U24" s="148"/>
+      <c r="V24" s="133"/>
+      <c r="W24" s="148"/>
+      <c r="X24" s="133"/>
+      <c r="Y24" s="148"/>
+      <c r="Z24" s="142"/>
+    </row>
+    <row r="25" spans="2:26" ht="15" customHeight="1" thickBot="1">
+      <c r="B25" s="142"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="128"/>
+      <c r="N25" s="148"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="148"/>
+      <c r="Q25" s="142"/>
+      <c r="R25" s="129"/>
+      <c r="S25" s="148"/>
+      <c r="T25" s="127"/>
+      <c r="U25" s="148"/>
+      <c r="V25" s="127"/>
+      <c r="W25" s="148"/>
+      <c r="X25" s="127"/>
+      <c r="Y25" s="148"/>
+      <c r="Z25" s="142"/>
+    </row>
+    <row r="26" spans="2:26" ht="15" customHeight="1">
+      <c r="B26" s="142"/>
+      <c r="C26" s="146">
+        <v>4</v>
+      </c>
+      <c r="D26" s="146">
+        <v>2</v>
+      </c>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146">
+        <v>2</v>
+      </c>
+      <c r="G26" s="146">
+        <v>7</v>
+      </c>
+      <c r="H26" s="146">
+        <v>3</v>
+      </c>
+      <c r="I26" s="146">
+        <v>0</v>
+      </c>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146">
+        <v>1</v>
+      </c>
+      <c r="L26" s="146">
+        <v>9</v>
+      </c>
+      <c r="M26" s="146">
+        <v>4</v>
+      </c>
+      <c r="N26" s="146">
+        <v>7</v>
+      </c>
+      <c r="O26" s="146">
+        <v>6</v>
+      </c>
+      <c r="P26" s="146">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="146"/>
+      <c r="R26" s="146">
+        <v>1</v>
+      </c>
+      <c r="S26" s="146">
+        <v>2</v>
+      </c>
+      <c r="T26" s="146">
+        <v>4</v>
+      </c>
+      <c r="U26" s="146">
+        <v>6</v>
+      </c>
+      <c r="V26" s="146">
+        <v>4</v>
+      </c>
+      <c r="W26" s="146">
+        <v>8</v>
+      </c>
+      <c r="X26" s="146">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="146">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="146"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC98020-A078-D747-942B-82891DEAF36D}">
+  <dimension ref="B2:AX30"/>
+  <sheetViews>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="2:50">
+      <c r="Z2" s="120"/>
+    </row>
+    <row r="3" spans="2:50">
+      <c r="Z3" s="120"/>
+    </row>
+    <row r="4" spans="2:50">
+      <c r="Z4" s="120"/>
+    </row>
+    <row r="5" spans="2:50">
+      <c r="Z5" s="120"/>
+    </row>
+    <row r="6" spans="2:50">
+      <c r="Z6" s="120"/>
+    </row>
+    <row r="7" spans="2:50">
+      <c r="Z7" s="120"/>
+    </row>
+    <row r="8" spans="2:50">
+      <c r="Z8" s="120"/>
+    </row>
+    <row r="9" spans="2:50">
+      <c r="Z9" s="120"/>
+    </row>
+    <row r="11" spans="2:50">
+      <c r="V11" s="130"/>
+      <c r="W11" s="130"/>
+      <c r="X11" s="130"/>
+      <c r="Y11" s="130"/>
+      <c r="Z11" s="130"/>
+      <c r="AA11" s="130"/>
+      <c r="AB11" s="130"/>
+      <c r="AC11" s="130"/>
+      <c r="AD11" s="130"/>
+    </row>
+    <row r="12" spans="2:50">
+      <c r="F12" s="120"/>
+      <c r="U12" s="120"/>
+      <c r="V12" s="130"/>
+      <c r="AD12" s="130"/>
+      <c r="AE12" s="120"/>
+      <c r="AT12" s="120"/>
+    </row>
+    <row r="13" spans="2:50">
+      <c r="F13" s="120"/>
+      <c r="U13" s="120"/>
+      <c r="Z13" s="120"/>
+      <c r="AE13" s="120"/>
+      <c r="AT13" s="120"/>
+    </row>
+    <row r="14" spans="2:50">
+      <c r="F14" s="120"/>
+      <c r="U14" s="120"/>
+      <c r="Z14" s="120"/>
+      <c r="AE14" s="120"/>
+      <c r="AT14" s="120"/>
+    </row>
+    <row r="15" spans="2:50">
+      <c r="F15" s="120"/>
+      <c r="Z15" s="120"/>
+      <c r="AQ15" s="120"/>
+      <c r="AT15" s="120"/>
+      <c r="AW15" s="120"/>
+    </row>
+    <row r="16" spans="2:50">
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="130"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="130"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="130"/>
+      <c r="S16" s="130"/>
+      <c r="T16" s="130"/>
+      <c r="U16" s="130"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="120"/>
+      <c r="X16" s="120"/>
+      <c r="Z16" s="120"/>
+      <c r="AB16" s="130"/>
+      <c r="AC16" s="130"/>
+      <c r="AD16" s="130"/>
+      <c r="AE16" s="130"/>
+      <c r="AF16" s="120"/>
+      <c r="AG16" s="120"/>
+      <c r="AH16" s="120"/>
+      <c r="AI16" s="120"/>
+      <c r="AJ16" s="120"/>
+      <c r="AK16" s="120"/>
+      <c r="AL16" s="120"/>
+      <c r="AM16" s="130"/>
+      <c r="AN16" s="130"/>
+      <c r="AP16" s="120"/>
+      <c r="AQ16" s="120"/>
+      <c r="AR16" s="120"/>
+      <c r="AT16" s="120"/>
+      <c r="AV16" s="130"/>
+      <c r="AW16" s="120"/>
+      <c r="AX16" s="130"/>
+    </row>
+    <row r="17" spans="6:49">
+      <c r="F17" s="120"/>
+      <c r="Z17" s="120"/>
+      <c r="AQ17" s="120"/>
+      <c r="AT17" s="120"/>
+      <c r="AW17" s="120"/>
+    </row>
+    <row r="18" spans="6:49">
+      <c r="F18" s="120"/>
+      <c r="U18" s="120"/>
+      <c r="Z18" s="120"/>
+      <c r="AE18" s="120"/>
+      <c r="AT18" s="120"/>
+    </row>
+    <row r="19" spans="6:49">
+      <c r="F19" s="120"/>
+      <c r="U19" s="120"/>
+      <c r="Z19" s="120"/>
+      <c r="AE19" s="120"/>
+      <c r="AT19" s="120"/>
+    </row>
+    <row r="20" spans="6:49">
+      <c r="F20" s="120"/>
+      <c r="U20" s="120"/>
+      <c r="V20" s="130"/>
+      <c r="AD20" s="130"/>
+      <c r="AE20" s="120"/>
+      <c r="AT20" s="120"/>
+    </row>
+    <row r="21" spans="6:49">
+      <c r="V21" s="130"/>
+      <c r="W21" s="130"/>
+      <c r="X21" s="130"/>
+      <c r="Y21" s="130"/>
+      <c r="Z21" s="130"/>
+      <c r="AA21" s="130"/>
+      <c r="AB21" s="130"/>
+      <c r="AC21" s="130"/>
+      <c r="AD21" s="130"/>
+    </row>
+    <row r="23" spans="6:49">
+      <c r="Z23" s="120"/>
+    </row>
+    <row r="24" spans="6:49">
+      <c r="Z24" s="120"/>
+    </row>
+    <row r="25" spans="6:49">
+      <c r="Z25" s="120"/>
+    </row>
+    <row r="26" spans="6:49">
+      <c r="Z26" s="120"/>
+    </row>
+    <row r="27" spans="6:49">
+      <c r="Z27" s="120"/>
+    </row>
+    <row r="28" spans="6:49">
+      <c r="Z28" s="120"/>
+    </row>
+    <row r="29" spans="6:49">
+      <c r="Z29" s="120"/>
+    </row>
+    <row r="30" spans="6:49">
+      <c r="Z30" s="120"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB45FA1E-6A60-7641-A8BA-283945EF1681}">
   <dimension ref="B1:IW35"/>
   <sheetViews>
@@ -13957,7 +16208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7F3813-A462-184E-A69E-DA8689A1A95A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13973,7 +16224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F8D9DB-A6A0-3747-AE05-A39D3613EE7B}">
   <dimension ref="B1:E8"/>
   <sheetViews>
@@ -14063,7 +16314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFE01E8-AADA-0849-822F-456A61BFA78C}">
   <dimension ref="A1"/>
   <sheetViews>
